--- a/biology/Biochimie/Courant_calcique_de_type_L/Courant_calcique_de_type_L.xlsx
+++ b/biology/Biochimie/Courant_calcique_de_type_L/Courant_calcique_de_type_L.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le courant ionique de type L est un courant calcique à "charge longue" (en anglais long lasting). Il s'inactive lentement. Il est impliqué dans la génération de potentiel d'action dans les dendrites et dans la transmission synaptique.
 On retrouve 4 protéines-canal capable de générer ce courant ionique: 
-Cav1.1 (majoritairement dans les muscles squelettiques), Cav1.2 (les muscles cardiaques, les muscles lisses, glande pituitaire, et les glandes surrénales), Cav1.3 (cerveau, pancréas, rein, ovaires et cochlée), Cav1.4 (dans la rétine)[1].
-Cav 1.1 a été le premier canal calcique de type L à avoir été cloné[2]. Ce canal contient 5 sous-unités : α, β, γ, et α2δ qui concerne l'association de deux-unités entre elles[3].
+Cav1.1 (majoritairement dans les muscles squelettiques), Cav1.2 (les muscles cardiaques, les muscles lisses, glande pituitaire, et les glandes surrénales), Cav1.3 (cerveau, pancréas, rein, ovaires et cochlée), Cav1.4 (dans la rétine).
+Cav 1.1 a été le premier canal calcique de type L à avoir été cloné. Ce canal contient 5 sous-unités : α, β, γ, et α2δ qui concerne l'association de deux-unités entre elles.
 </t>
         </is>
       </c>
